--- a/config/nssar1o1c/timing_table.xlsx
+++ b/config/nssar1o1c/timing_table.xlsx
@@ -19,16 +19,16 @@
     <t>Item</t>
   </si>
   <si>
-    <t>frame1</t>
-  </si>
-  <si>
-    <t>frame2</t>
-  </si>
-  <si>
-    <t>frame3</t>
-  </si>
-  <si>
-    <t>frame4</t>
+    <t>Frame1</t>
+  </si>
+  <si>
+    <t>Frame2</t>
+  </si>
+  <si>
+    <t>Frame3</t>
+  </si>
+  <si>
+    <t>Frame4</t>
   </si>
   <si>
     <t>CB1</t>
@@ -413,7 +413,7 @@
     <col min="1" max="1" style="2" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="29.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="23.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>

--- a/config/nssar1o1c/timing_table.xlsx
+++ b/config/nssar1o1c/timing_table.xlsx
@@ -94,13 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,10 +414,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
